--- a/parts/data/USDT.xlsx
+++ b/parts/data/USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Volume</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ema</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>43336209524</v>
       </c>
+      <c r="G2" t="n">
+        <v>1.000499963760376</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>43202922802</v>
       </c>
+      <c r="G3" t="n">
+        <v>1.000489979982376</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>54125933259</v>
       </c>
+      <c r="G4" t="n">
+        <v>1.000408731400967</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>60765931554</v>
       </c>
+      <c r="G5" t="n">
+        <v>1.000358553603292</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>77225535519</v>
       </c>
+      <c r="G6" t="n">
+        <v>1.000299402978271</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>71751236899</v>
       </c>
+      <c r="G7" t="n">
+        <v>1.00027330883313</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>82344370614</v>
       </c>
+      <c r="G8" t="n">
+        <v>1.000267983734375</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>62394894090</v>
       </c>
+      <c r="G9" t="n">
+        <v>1.000225246891205</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>49109221960</v>
       </c>
+      <c r="G10" t="n">
+        <v>1.000233188975471</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>68455690767</v>
       </c>
+      <c r="G11" t="n">
+        <v>1.000220131656988</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>59061400900</v>
       </c>
+      <c r="G12" t="n">
+        <v>1.000255608395832</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>62300703831</v>
       </c>
+      <c r="G13" t="n">
+        <v>1.000264215347244</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>63231903910</v>
       </c>
+      <c r="G14" t="n">
+        <v>1.000299399999584</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>60503324000</v>
       </c>
+      <c r="G15" t="n">
+        <v>1.000295300713036</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>41922988280</v>
       </c>
+      <c r="G16" t="n">
+        <v>1.000381961040835</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>41551382127</v>
       </c>
+      <c r="G17" t="n">
+        <v>1.000390719304338</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>51430977642</v>
       </c>
+      <c r="G18" t="n">
+        <v>1.000385039247465</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>52799723207</v>
       </c>
+      <c r="G19" t="n">
+        <v>1.00039377301737</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>50127231375</v>
       </c>
+      <c r="G20" t="n">
+        <v>1.000417817308041</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>38591713522</v>
       </c>
+      <c r="G21" t="n">
+        <v>1.000377616788099</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>86570105642</v>
       </c>
+      <c r="G22" t="n">
+        <v>1.00032746903982</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>90441827607</v>
       </c>
+      <c r="G23" t="n">
+        <v>1.000285089857029</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>57296666670</v>
       </c>
+      <c r="G24" t="n">
+        <v>1.000336573158686</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>88845381041</v>
       </c>
+      <c r="G25" t="n">
+        <v>1.000362191822369</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>58560287216</v>
       </c>
+      <c r="G26" t="n">
+        <v>1.000422652234315</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>70750980627</v>
       </c>
+      <c r="G27" t="n">
+        <v>1.000474494449555</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>53950927548</v>
       </c>
+      <c r="G28" t="n">
+        <v>1.000441880339577</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>50688257403</v>
       </c>
+      <c r="G29" t="n">
+        <v>1.000417658175673</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>39357192812</v>
       </c>
+      <c r="G30" t="n">
+        <v>1.000403753284846</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>35043713256</v>
       </c>
+      <c r="G31" t="n">
+        <v>1.000388079407986</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>45082693892</v>
       </c>
+      <c r="G32" t="n">
+        <v>1.000412295403462</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>43193864245</v>
       </c>
+      <c r="G33" t="n">
+        <v>1.00041573505281</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1291,9 @@
       <c r="F34" t="n">
         <v>44198324772</v>
       </c>
+      <c r="G34" t="n">
+        <v>1.00040681109338</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1316,9 @@
       <c r="F35" t="n">
         <v>41979444063</v>
       </c>
+      <c r="G35" t="n">
+        <v>1.000401608239926</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1341,9 @@
       <c r="F36" t="n">
         <v>59154422463</v>
       </c>
+      <c r="G36" t="n">
+        <v>1.000441962548582</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1366,9 @@
       <c r="F37" t="n">
         <v>50686325002</v>
       </c>
+      <c r="G37" t="n">
+        <v>1.000480215302473</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1391,9 @@
       <c r="F38" t="n">
         <v>40572292703</v>
       </c>
+      <c r="G38" t="n">
+        <v>1.000529915505175</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1416,9 @@
       <c r="F39" t="n">
         <v>64635714287</v>
       </c>
+      <c r="G39" t="n">
+        <v>1.000536196241919</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1441,9 @@
       <c r="F40" t="n">
         <v>72230569455</v>
       </c>
+      <c r="G40" t="n">
+        <v>1.000556910641598</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1466,9 @@
       <c r="F41" t="n">
         <v>53386706331</v>
       </c>
+      <c r="G41" t="n">
+        <v>1.00060367927522</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1491,9 @@
       <c r="F42" t="n">
         <v>77334791717</v>
       </c>
+      <c r="G42" t="n">
+        <v>1.000634255599756</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1516,9 @@
       <c r="F43" t="n">
         <v>66753002645</v>
       </c>
+      <c r="G43" t="n">
+        <v>1.000656204366519</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1541,9 @@
       <c r="F44" t="n">
         <v>49138854287</v>
       </c>
+      <c r="G44" t="n">
+        <v>1.000642416584368</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1566,9 @@
       <c r="F45" t="n">
         <v>41277090178</v>
       </c>
+      <c r="G45" t="n">
+        <v>1.000595806321409</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="F46" t="n">
         <v>48318327792</v>
       </c>
+      <c r="G46" t="n">
+        <v>1.000575094134291</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1616,9 @@
       <c r="F47" t="n">
         <v>53542330209</v>
       </c>
+      <c r="G47" t="n">
+        <v>1.000577560596675</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1641,9 @@
       <c r="F48" t="n">
         <v>48729582312</v>
       </c>
+      <c r="G48" t="n">
+        <v>1.000532412181057</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1666,9 @@
       <c r="F49" t="n">
         <v>59426477844</v>
       </c>
+      <c r="G49" t="n">
+        <v>1.000528055168508</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1691,9 @@
       <c r="F50" t="n">
         <v>52679060916</v>
       </c>
+      <c r="G50" t="n">
+        <v>1.000535784466057</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1716,9 @@
       <c r="F51" t="n">
         <v>37278604791</v>
       </c>
+      <c r="G51" t="n">
+        <v>1.00054584317132</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1741,9 @@
       <c r="F52" t="n">
         <v>45611091002</v>
       </c>
+      <c r="G52" t="n">
+        <v>1.000511395728023</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1766,9 @@
       <c r="F53" t="n">
         <v>72043746349</v>
       </c>
+      <c r="G53" t="n">
+        <v>1.000509044375592</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1630,6 +1791,9 @@
       <c r="F54" t="n">
         <v>60539262856</v>
       </c>
+      <c r="G54" t="n">
+        <v>1.000557795797715</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1652,6 +1816,9 @@
       <c r="F55" t="n">
         <v>54845607157</v>
       </c>
+      <c r="G55" t="n">
+        <v>1.000542860951222</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,6 +1841,9 @@
       <c r="F56" t="n">
         <v>107952010250</v>
       </c>
+      <c r="G56" t="n">
+        <v>1.000566141103355</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1696,6 +1866,9 @@
       <c r="F57" t="n">
         <v>66025345539</v>
       </c>
+      <c r="G57" t="n">
+        <v>1.00054309986133</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1718,6 +1891,9 @@
       <c r="F58" t="n">
         <v>46708690534</v>
       </c>
+      <c r="G58" t="n">
+        <v>1.000506566629548</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1740,6 +1916,9 @@
       <c r="F59" t="n">
         <v>57257598779</v>
       </c>
+      <c r="G59" t="n">
+        <v>1.000502680738076</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1762,6 +1941,9 @@
       <c r="F60" t="n">
         <v>72330789600</v>
       </c>
+      <c r="G60" t="n">
+        <v>1.000464748590667</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1784,6 +1966,9 @@
       <c r="F61" t="n">
         <v>75388694286</v>
       </c>
+      <c r="G61" t="n">
+        <v>1.000461571849494</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,6 +1991,9 @@
       <c r="F62" t="n">
         <v>68076385283</v>
       </c>
+      <c r="G62" t="n">
+        <v>1.000462914583913</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1828,6 +2016,9 @@
       <c r="F63" t="n">
         <v>57033279685</v>
       </c>
+      <c r="G63" t="n">
+        <v>1.000351447670036</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1850,6 +2041,9 @@
       <c r="F64" t="n">
         <v>61900652306</v>
       </c>
+      <c r="G64" t="n">
+        <v>1.000312848991434</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1872,6 +2066,9 @@
       <c r="F65" t="n">
         <v>39306054797</v>
       </c>
+      <c r="G65" t="n">
+        <v>1.000303390701324</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1894,6 +2091,9 @@
       <c r="F66" t="n">
         <v>43914369258</v>
       </c>
+      <c r="G66" t="n">
+        <v>1.00028854837992</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1916,6 +2116,9 @@
       <c r="F67" t="n">
         <v>61333826920</v>
       </c>
+      <c r="G67" t="n">
+        <v>1.000247167281644</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1938,6 +2141,9 @@
       <c r="F68" t="n">
         <v>55667916973</v>
       </c>
+      <c r="G68" t="n">
+        <v>1.000255887756003</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1960,6 +2166,9 @@
       <c r="F69" t="n">
         <v>67017876859</v>
       </c>
+      <c r="G69" t="n">
+        <v>1.00026540834401</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1982,6 +2191,9 @@
       <c r="F70" t="n">
         <v>65784999972</v>
       </c>
+      <c r="G70" t="n">
+        <v>1.000340319266125</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2004,6 +2216,9 @@
       <c r="F71" t="n">
         <v>58051333936</v>
       </c>
+      <c r="G71" t="n">
+        <v>1.00030524774656</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2026,6 +2241,9 @@
       <c r="F72" t="n">
         <v>38101124958</v>
       </c>
+      <c r="G72" t="n">
+        <v>1.000249171586822</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2048,6 +2266,9 @@
       <c r="F73" t="n">
         <v>42268710956</v>
       </c>
+      <c r="G73" t="n">
+        <v>1.000236618766181</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2070,6 +2291,9 @@
       <c r="F74" t="n">
         <v>52613345077</v>
       </c>
+      <c r="G74" t="n">
+        <v>1.000232210940862</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2092,6 +2316,9 @@
       <c r="F75" t="n">
         <v>52961395870</v>
       </c>
+      <c r="G75" t="n">
+        <v>1.000257664312977</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2114,6 +2341,9 @@
       <c r="F76" t="n">
         <v>74673285342</v>
       </c>
+      <c r="G76" t="n">
+        <v>1.000301996909125</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2136,6 +2366,9 @@
       <c r="F77" t="n">
         <v>52913216462</v>
       </c>
+      <c r="G77" t="n">
+        <v>1.000351488621938</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2158,6 +2391,9 @@
       <c r="F78" t="n">
         <v>64969319781</v>
       </c>
+      <c r="G78" t="n">
+        <v>1.000384375476769</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2180,6 +2416,9 @@
       <c r="F79" t="n">
         <v>58881848497</v>
       </c>
+      <c r="G79" t="n">
+        <v>1.000415775942751</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2202,6 +2441,9 @@
       <c r="F80" t="n">
         <v>57837125338</v>
       </c>
+      <c r="G80" t="n">
+        <v>1.000418583875856</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2224,6 +2466,9 @@
       <c r="F81" t="n">
         <v>64828148834</v>
       </c>
+      <c r="G81" t="n">
+        <v>1.000400692467363</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2246,6 +2491,9 @@
       <c r="F82" t="n">
         <v>71455738693</v>
       </c>
+      <c r="G82" t="n">
+        <v>1.000384770515912</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2268,6 +2516,9 @@
       <c r="F83" t="n">
         <v>68181581345</v>
       </c>
+      <c r="G83" t="n">
+        <v>1.000390829655046</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2290,6 +2541,9 @@
       <c r="F84" t="n">
         <v>77842904360</v>
       </c>
+      <c r="G84" t="n">
+        <v>1.000443117329862</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2312,6 +2566,9 @@
       <c r="F85" t="n">
         <v>64320675570</v>
       </c>
+      <c r="G85" t="n">
+        <v>1.000433844707449</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2334,6 +2591,9 @@
       <c r="F86" t="n">
         <v>39871932342</v>
       </c>
+      <c r="G86" t="n">
+        <v>1.000415624962776</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2356,6 +2616,9 @@
       <c r="F87" t="n">
         <v>59103680528</v>
       </c>
+      <c r="G87" t="n">
+        <v>1.000405715246893</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2378,6 +2641,9 @@
       <c r="F88" t="n">
         <v>86217871591</v>
       </c>
+      <c r="G88" t="n">
+        <v>1.000407283261342</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2400,6 +2666,9 @@
       <c r="F89" t="n">
         <v>80447404974</v>
       </c>
+      <c r="G89" t="n">
+        <v>1.00041796621302</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2422,6 +2691,9 @@
       <c r="F90" t="n">
         <v>79713341087</v>
       </c>
+      <c r="G90" t="n">
+        <v>1.000382973675573</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2444,6 +2716,9 @@
       <c r="F91" t="n">
         <v>90489848043</v>
       </c>
+      <c r="G91" t="n">
+        <v>1.000363226178768</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2466,6 +2741,9 @@
       <c r="F92" t="n">
         <v>92250507858</v>
       </c>
+      <c r="G92" t="n">
+        <v>1.000361916008206</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2488,6 +2766,9 @@
       <c r="F93" t="n">
         <v>79916606735</v>
       </c>
+      <c r="G93" t="n">
+        <v>1.000357446508566</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2510,6 +2791,9 @@
       <c r="F94" t="n">
         <v>67183096448</v>
       </c>
+      <c r="G94" t="n">
+        <v>1.000336332199692</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2532,6 +2816,9 @@
       <c r="F95" t="n">
         <v>79820905659</v>
       </c>
+      <c r="G95" t="n">
+        <v>1.000309260992497</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2554,6 +2841,9 @@
       <c r="F96" t="n">
         <v>71594982811</v>
       </c>
+      <c r="G96" t="n">
+        <v>1.000280434122897</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2576,6 +2866,9 @@
       <c r="F97" t="n">
         <v>92098510461</v>
       </c>
+      <c r="G97" t="n">
+        <v>1.000249068611277</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2598,6 +2891,9 @@
       <c r="F98" t="n">
         <v>61906251582</v>
       </c>
+      <c r="G98" t="n">
+        <v>1.000252306963066</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2620,6 +2916,9 @@
       <c r="F99" t="n">
         <v>64297486911</v>
       </c>
+      <c r="G99" t="n">
+        <v>1.000261232633188</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2642,6 +2941,9 @@
       <c r="F100" t="n">
         <v>40069848333</v>
       </c>
+      <c r="G100" t="n">
+        <v>1.000288937523063</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2664,6 +2966,9 @@
       <c r="F101" t="n">
         <v>43341611560</v>
       </c>
+      <c r="G101" t="n">
+        <v>1.000289689029825</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2686,6 +2991,9 @@
       <c r="F102" t="n">
         <v>73914574528</v>
       </c>
+      <c r="G102" t="n">
+        <v>1.000304259751418</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2708,6 +3016,9 @@
       <c r="F103" t="n">
         <v>68489224153</v>
       </c>
+      <c r="G103" t="n">
+        <v>1.000336943487957</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2730,6 +3041,9 @@
       <c r="F104" t="n">
         <v>57894656914</v>
       </c>
+      <c r="G104" t="n">
+        <v>1.000321461573716</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2752,6 +3066,9 @@
       <c r="F105" t="n">
         <v>52908937427</v>
       </c>
+      <c r="G105" t="n">
+        <v>1.00027283565363</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2774,6 +3091,9 @@
       <c r="F106" t="n">
         <v>42988969647</v>
       </c>
+      <c r="G106" t="n">
+        <v>1.00026438039661</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2796,6 +3116,9 @@
       <c r="F107" t="n">
         <v>35315439111</v>
       </c>
+      <c r="G107" t="n">
+        <v>1.000272284463946</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2818,6 +3141,9 @@
       <c r="F108" t="n">
         <v>40964576376</v>
       </c>
+      <c r="G108" t="n">
+        <v>1.000282712665129</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2840,6 +3166,9 @@
       <c r="F109" t="n">
         <v>68691204704</v>
       </c>
+      <c r="G109" t="n">
+        <v>1.000266542946493</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2862,6 +3191,9 @@
       <c r="F110" t="n">
         <v>57975539645</v>
       </c>
+      <c r="G110" t="n">
+        <v>1.00028564849138</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2884,6 +3216,9 @@
       <c r="F111" t="n">
         <v>66021482830</v>
       </c>
+      <c r="G111" t="n">
+        <v>1.000264721502659</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2906,6 +3241,9 @@
       <c r="F112" t="n">
         <v>77014328066</v>
       </c>
+      <c r="G112" t="n">
+        <v>1.000237790785579</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2928,6 +3266,9 @@
       <c r="F113" t="n">
         <v>60728483573</v>
       </c>
+      <c r="G113" t="n">
+        <v>1.000236845048031</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2950,6 +3291,9 @@
       <c r="F114" t="n">
         <v>38357597167</v>
       </c>
+      <c r="G114" t="n">
+        <v>1.000234645628751</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2972,6 +3316,9 @@
       <c r="F115" t="n">
         <v>39519383045</v>
       </c>
+      <c r="G115" t="n">
+        <v>1.000261993723974</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2994,6 +3341,9 @@
       <c r="F116" t="n">
         <v>73256647805</v>
       </c>
+      <c r="G116" t="n">
+        <v>1.000232734917004</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3016,6 +3366,9 @@
       <c r="F117" t="n">
         <v>69068297656</v>
       </c>
+      <c r="G117" t="n">
+        <v>1.000192790209054</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3038,6 +3391,9 @@
       <c r="F118" t="n">
         <v>61043327313</v>
       </c>
+      <c r="G118" t="n">
+        <v>1.000182829036414</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3060,6 +3416,9 @@
       <c r="F119" t="n">
         <v>68392086439</v>
       </c>
+      <c r="G119" t="n">
+        <v>1.000184865097776</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3082,6 +3441,9 @@
       <c r="F120" t="n">
         <v>67899674445</v>
       </c>
+      <c r="G120" t="n">
+        <v>1.000143655613493</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3104,6 +3466,9 @@
       <c r="F121" t="n">
         <v>57266339850</v>
       </c>
+      <c r="G121" t="n">
+        <v>1.000146484729224</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3126,6 +3491,9 @@
       <c r="F122" t="n">
         <v>61420362842</v>
       </c>
+      <c r="G122" t="n">
+        <v>1.000138116148541</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3148,6 +3516,9 @@
       <c r="F123" t="n">
         <v>63751566652</v>
       </c>
+      <c r="G123" t="n">
+        <v>1.000092336734705</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3170,6 +3541,9 @@
       <c r="F124" t="n">
         <v>52924035065</v>
       </c>
+      <c r="G124" t="n">
+        <v>1.000080488026569</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3192,6 +3566,9 @@
       <c r="F125" t="n">
         <v>72222517203</v>
       </c>
+      <c r="G125" t="n">
+        <v>1.000069872960768</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3214,6 +3591,9 @@
       <c r="F126" t="n">
         <v>85679638685</v>
       </c>
+      <c r="G126" t="n">
+        <v>1.000049409587176</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3236,6 +3616,9 @@
       <c r="F127" t="n">
         <v>81327879764</v>
       </c>
+      <c r="G127" t="n">
+        <v>1.000032557039702</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3258,6 +3641,9 @@
       <c r="F128" t="n">
         <v>57202594793</v>
       </c>
+      <c r="G128" t="n">
+        <v>1.000004673741194</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3280,6 +3666,9 @@
       <c r="F129" t="n">
         <v>77900163502</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.999967012362132</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3302,6 +3691,9 @@
       <c r="F130" t="n">
         <v>120710294040</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.999952505198456</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3324,6 +3716,9 @@
       <c r="F131" t="n">
         <v>128692083965</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.9999121354276964</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3346,6 +3741,9 @@
       <c r="F132" t="n">
         <v>159700404396</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.9989021067511312</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3368,6 +3766,9 @@
       <c r="F133" t="n">
         <v>141052751792</v>
       </c>
+      <c r="G133" t="n">
+        <v>0.9985788348832184</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3390,6 +3791,9 @@
       <c r="F134" t="n">
         <v>87009885196</v>
       </c>
+      <c r="G134" t="n">
+        <v>0.9984938713549416</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3412,6 +3816,9 @@
       <c r="F135" t="n">
         <v>60781876668</v>
       </c>
+      <c r="G135" t="n">
+        <v>0.9985654065488905</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3434,6 +3841,9 @@
       <c r="F136" t="n">
         <v>53979914930</v>
       </c>
+      <c r="G136" t="n">
+        <v>0.9986912987738199</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3456,6 +3866,9 @@
       <c r="F137" t="n">
         <v>62504490441</v>
       </c>
+      <c r="G137" t="n">
+        <v>0.998713223793309</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3478,6 +3891,9 @@
       <c r="F138" t="n">
         <v>55745978864</v>
       </c>
+      <c r="G138" t="n">
+        <v>0.9987621669904896</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3500,6 +3916,9 @@
       <c r="F139" t="n">
         <v>56067250693</v>
       </c>
+      <c r="G139" t="n">
+        <v>0.998772126804032</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3522,6 +3941,9 @@
       <c r="F140" t="n">
         <v>59651836770</v>
       </c>
+      <c r="G140" t="n">
+        <v>0.9988218414561735</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3544,6 +3966,9 @@
       <c r="F141" t="n">
         <v>54960961209</v>
       </c>
+      <c r="G141" t="n">
+        <v>0.9988208761644949</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3566,6 +3991,9 @@
       <c r="F142" t="n">
         <v>34924240134</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.9988139086091957</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3588,6 +4016,9 @@
       <c r="F143" t="n">
         <v>40965864100</v>
       </c>
+      <c r="G143" t="n">
+        <v>0.9988769302609892</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3610,6 +4041,9 @@
       <c r="F144" t="n">
         <v>58585612765</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.9989296950283149</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3632,6 +4066,9 @@
       <c r="F145" t="n">
         <v>51053417289</v>
       </c>
+      <c r="G145" t="n">
+        <v>0.9989740220742299</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3654,6 +4091,9 @@
       <c r="F146" t="n">
         <v>50311844127</v>
       </c>
+      <c r="G146" t="n">
+        <v>0.9989745146063621</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3676,6 +4116,9 @@
       <c r="F147" t="n">
         <v>67771285444</v>
       </c>
+      <c r="G147" t="n">
+        <v>0.99895764336196</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3698,6 +4141,9 @@
       <c r="F148" t="n">
         <v>67961870830</v>
       </c>
+      <c r="G148" t="n">
+        <v>0.9989339779705362</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3720,6 +4166,9 @@
       <c r="F149" t="n">
         <v>37159842905</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.9989509784348723</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3742,6 +4191,9 @@
       <c r="F150" t="n">
         <v>34572061153</v>
       </c>
+      <c r="G150" t="n">
+        <v>0.9990077319121299</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3764,6 +4216,9 @@
       <c r="F151" t="n">
         <v>65155466235</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.999099798677559</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3786,6 +4241,9 @@
       <c r="F152" t="n">
         <v>62841794272</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.9991718438850309</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3808,6 +4266,9 @@
       <c r="F153" t="n">
         <v>68866735590</v>
       </c>
+      <c r="G153" t="n">
+        <v>0.9991938849975516</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3830,6 +4291,9 @@
       <c r="F154" t="n">
         <v>50520845556</v>
       </c>
+      <c r="G154" t="n">
+        <v>0.9992246613420434</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3852,6 +4316,9 @@
       <c r="F155" t="n">
         <v>43789145735</v>
       </c>
+      <c r="G155" t="n">
+        <v>0.9992109973369082</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3874,6 +4341,9 @@
       <c r="F156" t="n">
         <v>30834183068</v>
       </c>
+      <c r="G156" t="n">
+        <v>0.9992364972187608</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3896,6 +4366,9 @@
       <c r="F157" t="n">
         <v>30872185296</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.99925137529921</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3918,6 +4391,9 @@
       <c r="F158" t="n">
         <v>51540243030</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.9992662740510067</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3940,6 +4416,9 @@
       <c r="F159" t="n">
         <v>67008901675</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.9993032122225582</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3962,6 +4441,9 @@
       <c r="F160" t="n">
         <v>52176620958</v>
       </c>
+      <c r="G160" t="n">
+        <v>0.9992929029890165</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3984,6 +4466,9 @@
       <c r="F161" t="n">
         <v>42359067750</v>
       </c>
+      <c r="G161" t="n">
+        <v>0.9992981797775824</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4006,6 +4491,9 @@
       <c r="F162" t="n">
         <v>49685289881</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.999268639558643</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4028,6 +4516,9 @@
       <c r="F163" t="n">
         <v>48736816876</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.9992077264741732</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4050,6 +4541,9 @@
       <c r="F164" t="n">
         <v>59051274983</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.9991757954326028</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4072,6 +4566,9 @@
       <c r="F165" t="n">
         <v>107410569162</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.9990303430830505</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4094,6 +4591,9 @@
       <c r="F166" t="n">
         <v>81024425505</v>
       </c>
+      <c r="G166" t="n">
+        <v>0.9990112568344971</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4116,6 +4616,9 @@
       <c r="F167" t="n">
         <v>89017006423</v>
       </c>
+      <c r="G167" t="n">
+        <v>0.998993947014682</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4138,6 +4641,9 @@
       <c r="F168" t="n">
         <v>52400892767</v>
       </c>
+      <c r="G168" t="n">
+        <v>0.9989779546152595</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4160,6 +4666,9 @@
       <c r="F169" t="n">
         <v>43836219287</v>
       </c>
+      <c r="G169" t="n">
+        <v>0.9989924694814565</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4182,6 +4691,9 @@
       <c r="F170" t="n">
         <v>61973128141</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.9989111025421531</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4204,6 +4716,9 @@
       <c r="F171" t="n">
         <v>55603476684</v>
       </c>
+      <c r="G171" t="n">
+        <v>0.9989255815214448</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4226,6 +4741,9 @@
       <c r="F172" t="n">
         <v>52157987688</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.9989334307213524</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4248,6 +4766,9 @@
       <c r="F173" t="n">
         <v>50165859626</v>
       </c>
+      <c r="G173" t="n">
+        <v>0.9989735753908678</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4270,6 +4791,9 @@
       <c r="F174" t="n">
         <v>46130025676</v>
       </c>
+      <c r="G174" t="n">
+        <v>0.9990039372127447</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4292,6 +4816,9 @@
       <c r="F175" t="n">
         <v>43198538082</v>
       </c>
+      <c r="G175" t="n">
+        <v>0.9990729468823368</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4314,6 +4841,9 @@
       <c r="F176" t="n">
         <v>46919267632</v>
       </c>
+      <c r="G176" t="n">
+        <v>0.9991359545112323</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4336,6 +4866,9 @@
       <c r="F177" t="n">
         <v>36390241725</v>
       </c>
+      <c r="G177" t="n">
+        <v>0.9992389703780913</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4358,6 +4891,9 @@
       <c r="F178" t="n">
         <v>37228683270</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.9992787260555106</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4380,6 +4916,9 @@
       <c r="F179" t="n">
         <v>39296953700</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.9992320402520058</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4402,6 +4941,9 @@
       <c r="F180" t="n">
         <v>40773930242</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.9991320270342497</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4424,6 +4966,9 @@
       <c r="F181" t="n">
         <v>44380636377</v>
       </c>
+      <c r="G181" t="n">
+        <v>0.9990700258346549</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4446,6 +4991,9 @@
       <c r="F182" t="n">
         <v>45578518327</v>
       </c>
+      <c r="G182" t="n">
+        <v>0.9990072677680962</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4468,6 +5016,9 @@
       <c r="F183" t="n">
         <v>49683415220</v>
       </c>
+      <c r="G183" t="n">
+        <v>0.9989721946529383</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4490,6 +5041,9 @@
       <c r="F184" t="n">
         <v>31666712588</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.9989691505291934</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4512,6 +5066,9 @@
       <c r="F185" t="n">
         <v>27890770459</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.9989963568343875</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4534,6 +5091,9 @@
       <c r="F186" t="n">
         <v>37816157114</v>
       </c>
+      <c r="G186" t="n">
+        <v>0.999024525068265</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4556,6 +5116,9 @@
       <c r="F187" t="n">
         <v>46794873591</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.9990413895115717</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4578,6 +5141,9 @@
       <c r="F188" t="n">
         <v>41932894214</v>
       </c>
+      <c r="G188" t="n">
+        <v>0.9990555428613324</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4600,6 +5166,9 @@
       <c r="F189" t="n">
         <v>41395542117</v>
       </c>
+      <c r="G189" t="n">
+        <v>0.9991531508527025</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4622,6 +5191,9 @@
       <c r="F190" t="n">
         <v>64720676603</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.9992193682016302</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4644,6 +5216,9 @@
       <c r="F191" t="n">
         <v>38957001478</v>
       </c>
+      <c r="G191" t="n">
+        <v>0.9992990272508091</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4666,6 +5241,9 @@
       <c r="F192" t="n">
         <v>40170710077</v>
       </c>
+      <c r="G192" t="n">
+        <v>0.9993405176152308</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4688,6 +5266,9 @@
       <c r="F193" t="n">
         <v>38726869251</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.9993116433135807</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4710,6 +5291,9 @@
       <c r="F194" t="n">
         <v>40368791506</v>
       </c>
+      <c r="G194" t="n">
+        <v>0.9993194769853457</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4732,6 +5316,9 @@
       <c r="F195" t="n">
         <v>51757860849</v>
       </c>
+      <c r="G195" t="n">
+        <v>0.9993356042380709</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4754,6 +5341,9 @@
       <c r="F196" t="n">
         <v>49222660233</v>
       </c>
+      <c r="G196" t="n">
+        <v>0.9993534515258355</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4776,6 +5366,9 @@
       <c r="F197" t="n">
         <v>45982487607</v>
       </c>
+      <c r="G197" t="n">
+        <v>0.9994415812162074</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4798,6 +5391,9 @@
       <c r="F198" t="n">
         <v>44126749597</v>
       </c>
+      <c r="G198" t="n">
+        <v>0.9995246807089084</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4820,6 +5416,9 @@
       <c r="F199" t="n">
         <v>42189248625</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.9995770066492732</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4842,6 +5441,9 @@
       <c r="F200" t="n">
         <v>70390606911</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.9996270097429287</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4864,6 +5466,9 @@
       <c r="F201" t="n">
         <v>77160548741</v>
       </c>
+      <c r="G201" t="n">
+        <v>0.9997432647000799</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4886,6 +5491,9 @@
       <c r="F202" t="n">
         <v>68306872702</v>
       </c>
+      <c r="G202" t="n">
+        <v>0.9998244358488209</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4908,6 +5516,9 @@
       <c r="F203" t="n">
         <v>55292189306</v>
       </c>
+      <c r="G203" t="n">
+        <v>0.9998883242449379</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4930,6 +5541,9 @@
       <c r="F204" t="n">
         <v>51645071119</v>
       </c>
+      <c r="G204" t="n">
+        <v>0.9999292369962645</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4952,6 +5566,9 @@
       <c r="F205" t="n">
         <v>43014917183</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.9999559280485594</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4974,6 +5591,9 @@
       <c r="F206" t="n">
         <v>41955275140</v>
       </c>
+      <c r="G206" t="n">
+        <v>0.9999757079192015</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4996,6 +5616,9 @@
       <c r="F207" t="n">
         <v>56307512994</v>
       </c>
+      <c r="G207" t="n">
+        <v>0.9999972781470426</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5018,6 +5641,9 @@
       <c r="F208" t="n">
         <v>48266723630</v>
       </c>
+      <c r="G208" t="n">
+        <v>1.000009700725303</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5040,6 +5666,9 @@
       <c r="F209" t="n">
         <v>60104591185</v>
       </c>
+      <c r="G209" t="n">
+        <v>1.000075761280824</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5062,6 +5691,9 @@
       <c r="F210" t="n">
         <v>75754591120</v>
       </c>
+      <c r="G210" t="n">
+        <v>1.000106829257585</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5084,6 +5716,9 @@
       <c r="F211" t="n">
         <v>72013108986</v>
       </c>
+      <c r="G211" t="n">
+        <v>1.000157876202298</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5106,6 +5741,9 @@
       <c r="F212" t="n">
         <v>57489826931</v>
       </c>
+      <c r="G212" t="n">
+        <v>1.000190647981191</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5128,6 +5766,9 @@
       <c r="F213" t="n">
         <v>52267348020</v>
       </c>
+      <c r="G213" t="n">
+        <v>1.000224972174782</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5150,6 +5791,9 @@
       <c r="F214" t="n">
         <v>50882756969</v>
       </c>
+      <c r="G214" t="n">
+        <v>1.000219720904692</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5172,6 +5816,9 @@
       <c r="F215" t="n">
         <v>54793315279</v>
       </c>
+      <c r="G215" t="n">
+        <v>1.000204546976584</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5194,6 +5841,9 @@
       <c r="F216" t="n">
         <v>47717439471</v>
       </c>
+      <c r="G216" t="n">
+        <v>1.000204402006043</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5216,6 +5866,9 @@
       <c r="F217" t="n">
         <v>44526180493</v>
       </c>
+      <c r="G217" t="n">
+        <v>1.000186560896317</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5238,6 +5891,9 @@
       <c r="F218" t="n">
         <v>49723473321</v>
       </c>
+      <c r="G218" t="n">
+        <v>1.000150411089718</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5260,6 +5916,9 @@
       <c r="F219" t="n">
         <v>32961917502</v>
       </c>
+      <c r="G219" t="n">
+        <v>1.000144070953473</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5282,6 +5941,9 @@
       <c r="F220" t="n">
         <v>29901528651</v>
       </c>
+      <c r="G220" t="n">
+        <v>1.000144054420549</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5304,6 +5966,9 @@
       <c r="F221" t="n">
         <v>50243147547</v>
       </c>
+      <c r="G221" t="n">
+        <v>1.000152297264158</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5326,6 +5991,9 @@
       <c r="F222" t="n">
         <v>46070684571</v>
       </c>
+      <c r="G222" t="n">
+        <v>1.000166466419264</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5348,6 +6016,9 @@
       <c r="F223" t="n">
         <v>60085173824</v>
       </c>
+      <c r="G223" t="n">
+        <v>1.000188090342555</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5370,6 +6041,9 @@
       <c r="F224" t="n">
         <v>64445391375</v>
       </c>
+      <c r="G224" t="n">
+        <v>1.000242574466969</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5392,6 +6066,9 @@
       <c r="F225" t="n">
         <v>46783370955</v>
       </c>
+      <c r="G225" t="n">
+        <v>1.000265943597038</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5414,6 +6091,9 @@
       <c r="F226" t="n">
         <v>41593883061</v>
       </c>
+      <c r="G226" t="n">
+        <v>1.000293454222589</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5436,6 +6116,9 @@
       <c r="F227" t="n">
         <v>43866838979</v>
       </c>
+      <c r="G227" t="n">
+        <v>1.000287831345729</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5458,6 +6141,9 @@
       <c r="F228" t="n">
         <v>57703388667</v>
       </c>
+      <c r="G228" t="n">
+        <v>1.000259384899983</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5480,6 +6166,9 @@
       <c r="F229" t="n">
         <v>46945222159</v>
       </c>
+      <c r="G229" t="n">
+        <v>1.000223297916091</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5502,6 +6191,9 @@
       <c r="F230" t="n">
         <v>53355167557</v>
       </c>
+      <c r="G230" t="n">
+        <v>1.00018571245837</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5524,6 +6216,9 @@
       <c r="F231" t="n">
         <v>43149679443</v>
       </c>
+      <c r="G231" t="n">
+        <v>1.000139031024037</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5546,6 +6241,9 @@
       <c r="F232" t="n">
         <v>64302127382</v>
       </c>
+      <c r="G232" t="n">
+        <v>1.000119263836189</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5568,6 +6266,9 @@
       <c r="F233" t="n">
         <v>64302127382</v>
       </c>
+      <c r="G233" t="n">
+        <v>1.000082950970861</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5590,6 +6291,9 @@
       <c r="F234" t="n">
         <v>45699064002</v>
       </c>
+      <c r="G234" t="n">
+        <v>1.000060708210865</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5612,6 +6316,9 @@
       <c r="F235" t="n">
         <v>51710064329</v>
       </c>
+      <c r="G235" t="n">
+        <v>1.000041537646949</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5634,6 +6341,9 @@
       <c r="F236" t="n">
         <v>52978066914</v>
       </c>
+      <c r="G236" t="n">
+        <v>1.000029156479612</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5656,6 +6366,9 @@
       <c r="F237" t="n">
         <v>48708536003</v>
       </c>
+      <c r="G237" t="n">
+        <v>1.00003161271913</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5678,6 +6391,9 @@
       <c r="F238" t="n">
         <v>45854093190</v>
       </c>
+      <c r="G238" t="n">
+        <v>1.00004370689767</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5700,6 +6416,9 @@
       <c r="F239" t="n">
         <v>62406193046</v>
       </c>
+      <c r="G239" t="n">
+        <v>1.000043538811634</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5722,6 +6441,9 @@
       <c r="F240" t="n">
         <v>43316381517</v>
       </c>
+      <c r="G240" t="n">
+        <v>1.000037392677986</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5744,6 +6466,9 @@
       <c r="F241" t="n">
         <v>34337927087</v>
       </c>
+      <c r="G241" t="n">
+        <v>1.00003504805425</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5766,6 +6491,9 @@
       <c r="F242" t="n">
         <v>45837060552</v>
       </c>
+      <c r="G242" t="n">
+        <v>1.000034273063088</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5788,6 +6516,9 @@
       <c r="F243" t="n">
         <v>50170084207</v>
       </c>
+      <c r="G243" t="n">
+        <v>1.000045940574217</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5810,6 +6541,9 @@
       <c r="F244" t="n">
         <v>48405934722</v>
       </c>
+      <c r="G244" t="n">
+        <v>1.000038448941863</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5832,6 +6566,9 @@
       <c r="F245" t="n">
         <v>44702355872</v>
       </c>
+      <c r="G245" t="n">
+        <v>1.000031340101478</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5854,6 +6591,9 @@
       <c r="F246" t="n">
         <v>44468235183</v>
       </c>
+      <c r="G246" t="n">
+        <v>1.000045767410932</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5876,6 +6616,9 @@
       <c r="F247" t="n">
         <v>30873646175</v>
       </c>
+      <c r="G247" t="n">
+        <v>1.000052832800402</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5898,6 +6641,9 @@
       <c r="F248" t="n">
         <v>31495577330</v>
       </c>
+      <c r="G248" t="n">
+        <v>1.000054883389364</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5920,6 +6666,9 @@
       <c r="F249" t="n">
         <v>39598045837</v>
       </c>
+      <c r="G249" t="n">
+        <v>1.000050669482865</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5942,6 +6691,9 @@
       <c r="F250" t="n">
         <v>64015343588</v>
       </c>
+      <c r="G250" t="n">
+        <v>1.00005025086665</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5964,6 +6716,9 @@
       <c r="F251" t="n">
         <v>52755357561</v>
       </c>
+      <c r="G251" t="n">
+        <v>1.000064927472649</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5986,6 +6741,9 @@
       <c r="F252" t="n">
         <v>49640976411</v>
       </c>
+      <c r="G252" t="n">
+        <v>1.000074206392451</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6008,6 +6766,9 @@
       <c r="F253" t="n">
         <v>70683518131</v>
       </c>
+      <c r="G253" t="n">
+        <v>1.000114395171764</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6030,6 +6791,9 @@
       <c r="F254" t="n">
         <v>53524443076</v>
       </c>
+      <c r="G254" t="n">
+        <v>1.000156040452691</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6052,6 +6816,9 @@
       <c r="F255" t="n">
         <v>47160062304</v>
       </c>
+      <c r="G255" t="n">
+        <v>1.000186022715846</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6074,6 +6841,9 @@
       <c r="F256" t="n">
         <v>66834639114</v>
       </c>
+      <c r="G256" t="n">
+        <v>1.00019050881049</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6096,6 +6866,9 @@
       <c r="F257" t="n">
         <v>71413926112</v>
       </c>
+      <c r="G257" t="n">
+        <v>1.000149140095569</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6118,6 +6891,9 @@
       <c r="F258" t="n">
         <v>55170613417</v>
       </c>
+      <c r="G258" t="n">
+        <v>1.00014734963764</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6140,6 +6916,9 @@
       <c r="F259" t="n">
         <v>60606622307</v>
       </c>
+      <c r="G259" t="n">
+        <v>1.00011125728629</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6162,6 +6941,9 @@
       <c r="F260" t="n">
         <v>46290851147</v>
       </c>
+      <c r="G260" t="n">
+        <v>1.000078689494297</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6184,6 +6966,9 @@
       <c r="F261" t="n">
         <v>34904822689</v>
       </c>
+      <c r="G261" t="n">
+        <v>1.000083514629725</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6206,6 +6991,9 @@
       <c r="F262" t="n">
         <v>46056427438</v>
       </c>
+      <c r="G262" t="n">
+        <v>1.000068387820515</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6228,6 +7016,9 @@
       <c r="F263" t="n">
         <v>56769197831</v>
       </c>
+      <c r="G263" t="n">
+        <v>1.000077785129989</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6250,6 +7041,9 @@
       <c r="F264" t="n">
         <v>50515394641</v>
       </c>
+      <c r="G264" t="n">
+        <v>1.000073329415653</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6272,6 +7066,9 @@
       <c r="F265" t="n">
         <v>63560607050</v>
       </c>
+      <c r="G265" t="n">
+        <v>1.000076484536181</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6294,6 +7091,9 @@
       <c r="F266" t="n">
         <v>54330130153</v>
       </c>
+      <c r="G266" t="n">
+        <v>1.000053369890936</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6316,6 +7116,9 @@
       <c r="F267" t="n">
         <v>58265731392</v>
       </c>
+      <c r="G267" t="n">
+        <v>1.000035273947781</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6338,6 +7141,9 @@
       <c r="F268" t="n">
         <v>39015165939</v>
       </c>
+      <c r="G268" t="n">
+        <v>1.000038942633916</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6360,6 +7166,9 @@
       <c r="F269" t="n">
         <v>35041309688</v>
       </c>
+      <c r="G269" t="n">
+        <v>1.000042945846058</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6382,6 +7191,9 @@
       <c r="F270" t="n">
         <v>57810071895</v>
       </c>
+      <c r="G270" t="n">
+        <v>1.000029705989463</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6404,6 +7216,9 @@
       <c r="F271" t="n">
         <v>71681603882</v>
       </c>
+      <c r="G271" t="n">
+        <v>1.000017272701936</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6426,6 +7241,9 @@
       <c r="F272" t="n">
         <v>65738293663</v>
       </c>
+      <c r="G272" t="n">
+        <v>1.000006949358491</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6448,6 +7266,9 @@
       <c r="F273" t="n">
         <v>52649004466</v>
       </c>
+      <c r="G273" t="n">
+        <v>1.000024970958611</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6470,6 +7291,9 @@
       <c r="F274" t="n">
         <v>55223655589</v>
       </c>
+      <c r="G274" t="n">
+        <v>1.00003097697346</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6492,6 +7316,9 @@
       <c r="F275" t="n">
         <v>27312920843</v>
       </c>
+      <c r="G275" t="n">
+        <v>1.000033991368477</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6514,6 +7341,9 @@
       <c r="F276" t="n">
         <v>30109417396</v>
       </c>
+      <c r="G276" t="n">
+        <v>1.000040484094519</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6536,6 +7366,9 @@
       <c r="F277" t="n">
         <v>40191505534</v>
       </c>
+      <c r="G277" t="n">
+        <v>1.000052625405712</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6558,6 +7391,9 @@
       <c r="F278" t="n">
         <v>44505643606</v>
       </c>
+      <c r="G278" t="n">
+        <v>1.000102232745233</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6580,6 +7416,9 @@
       <c r="F279" t="n">
         <v>41883470473</v>
       </c>
+      <c r="G279" t="n">
+        <v>1.000103913881587</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6602,6 +7441,9 @@
       <c r="F280" t="n">
         <v>43958843047</v>
       </c>
+      <c r="G280" t="n">
+        <v>1.000113698198055</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6624,6 +7466,9 @@
       <c r="F281" t="n">
         <v>38019451874</v>
       </c>
+      <c r="G281" t="n">
+        <v>1.000115761424344</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6646,6 +7491,9 @@
       <c r="F282" t="n">
         <v>23441883205</v>
       </c>
+      <c r="G282" t="n">
+        <v>1.00010756348464</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6668,6 +7516,9 @@
       <c r="F283" t="n">
         <v>22977760897</v>
       </c>
+      <c r="G283" t="n">
+        <v>1.000120160690644</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6690,6 +7541,9 @@
       <c r="F284" t="n">
         <v>37843287016</v>
       </c>
+      <c r="G284" t="n">
+        <v>1.000094620668663</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6712,6 +7566,9 @@
       <c r="F285" t="n">
         <v>38468219592</v>
       </c>
+      <c r="G285" t="n">
+        <v>1.000046214672754</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6734,6 +7591,9 @@
       <c r="F286" t="n">
         <v>33048616462</v>
       </c>
+      <c r="G286" t="n">
+        <v>1.000032664248966</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6756,6 +7616,9 @@
       <c r="F287" t="n">
         <v>60450860335</v>
       </c>
+      <c r="G287" t="n">
+        <v>1.000044257126467</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6778,6 +7641,9 @@
       <c r="F288" t="n">
         <v>48926387475</v>
       </c>
+      <c r="G288" t="n">
+        <v>1.000051700087053</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6800,6 +7666,9 @@
       <c r="F289" t="n">
         <v>25527432092</v>
       </c>
+      <c r="G289" t="n">
+        <v>1.000060530760633</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6822,6 +7691,9 @@
       <c r="F290" t="n">
         <v>27428821905</v>
       </c>
+      <c r="G290" t="n">
+        <v>1.000059643580576</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6844,6 +7716,9 @@
       <c r="F291" t="n">
         <v>36706571573</v>
       </c>
+      <c r="G291" t="n">
+        <v>1.000061988230095</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6866,6 +7741,9 @@
       <c r="F292" t="n">
         <v>39012357142</v>
       </c>
+      <c r="G292" t="n">
+        <v>1.000072985437173</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6888,6 +7766,9 @@
       <c r="F293" t="n">
         <v>32767030077</v>
       </c>
+      <c r="G293" t="n">
+        <v>1.000069729646041</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6910,6 +7791,9 @@
       <c r="F294" t="n">
         <v>32981854458</v>
       </c>
+      <c r="G294" t="n">
+        <v>1.00005079221725</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6932,6 +7816,9 @@
       <c r="F295" t="n">
         <v>41430999058</v>
       </c>
+      <c r="G295" t="n">
+        <v>1.000068850159642</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6954,6 +7841,9 @@
       <c r="F296" t="n">
         <v>24133042918</v>
       </c>
+      <c r="G296" t="n">
+        <v>1.000072886675594</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6976,6 +7866,9 @@
       <c r="F297" t="n">
         <v>31629519444</v>
       </c>
+      <c r="G297" t="n">
+        <v>1.000073917306958</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6998,6 +7891,9 @@
       <c r="F298" t="n">
         <v>40494105063</v>
       </c>
+      <c r="G298" t="n">
+        <v>1.00006968349032</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7020,6 +7916,9 @@
       <c r="F299" t="n">
         <v>64740988487</v>
       </c>
+      <c r="G299" t="n">
+        <v>1.000104267670306</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7042,6 +7941,9 @@
       <c r="F300" t="n">
         <v>78294376043</v>
       </c>
+      <c r="G300" t="n">
+        <v>1.000127940828795</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7064,6 +7966,9 @@
       <c r="F301" t="n">
         <v>68447928073</v>
       </c>
+      <c r="G301" t="n">
+        <v>1.000118963014479</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7086,6 +7991,9 @@
       <c r="F302" t="n">
         <v>61718295435</v>
       </c>
+      <c r="G302" t="n">
+        <v>1.000125730105784</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7108,6 +8016,9 @@
       <c r="F303" t="n">
         <v>67603092351</v>
       </c>
+      <c r="G303" t="n">
+        <v>1.000150802782585</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7130,6 +8041,9 @@
       <c r="F304" t="n">
         <v>52873524542</v>
       </c>
+      <c r="G304" t="n">
+        <v>1.000157865175165</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7152,6 +8066,9 @@
       <c r="F305" t="n">
         <v>67168423338</v>
       </c>
+      <c r="G305" t="n">
+        <v>1.000105151749073</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7174,6 +8091,9 @@
       <c r="F306" t="n">
         <v>56795449219</v>
       </c>
+      <c r="G306" t="n">
+        <v>1.000059864831282</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7196,6 +8116,9 @@
       <c r="F307" t="n">
         <v>76399032768</v>
       </c>
+      <c r="G307" t="n">
+        <v>1.000043900245662</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7218,6 +8141,9 @@
       <c r="F308" t="n">
         <v>61590549857</v>
       </c>
+      <c r="G308" t="n">
+        <v>1.000034683521267</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7240,6 +8166,9 @@
       <c r="F309" t="n">
         <v>88078834184</v>
       </c>
+      <c r="G309" t="n">
+        <v>1.000045026522633</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7262,6 +8191,9 @@
       <c r="F310" t="n">
         <v>57121137337</v>
       </c>
+      <c r="G310" t="n">
+        <v>1.000063512609718</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7284,6 +8216,9 @@
       <c r="F311" t="n">
         <v>51095877870</v>
       </c>
+      <c r="G311" t="n">
+        <v>1.000070135210691</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7306,6 +8241,9 @@
       <c r="F312" t="n">
         <v>72598608064</v>
       </c>
+      <c r="G312" t="n">
+        <v>1.000076115440383</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7328,6 +8266,9 @@
       <c r="F313" t="n">
         <v>162734866334</v>
       </c>
+      <c r="G313" t="n">
+        <v>1.000065073602687</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7350,6 +8291,9 @@
       <c r="F314" t="n">
         <v>143975136007</v>
       </c>
+      <c r="G314" t="n">
+        <v>0.999698806727894</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7372,6 +8316,9 @@
       <c r="F315" t="n">
         <v>114807119109</v>
       </c>
+      <c r="G315" t="n">
+        <v>0.9992328501678764</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7394,6 +8341,9 @@
       <c r="F316" t="n">
         <v>74933538836</v>
       </c>
+      <c r="G316" t="n">
+        <v>0.9989791376096948</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7416,6 +8366,9 @@
       <c r="F317" t="n">
         <v>40298138489</v>
       </c>
+      <c r="G317" t="n">
+        <v>0.99888834824435</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7438,6 +8391,9 @@
       <c r="F318" t="n">
         <v>40189889540</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.9988550057282455</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7460,6 +8416,9 @@
       <c r="F319" t="n">
         <v>65634612428</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.9988945059679752</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7482,6 +8441,9 @@
       <c r="F320" t="n">
         <v>47859299075</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.9989533821271961</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7504,6 +8466,9 @@
       <c r="F321" t="n">
         <v>45661177296</v>
       </c>
+      <c r="G321" t="n">
+        <v>0.9990222900753547</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7526,6 +8491,9 @@
       <c r="F322" t="n">
         <v>37744442250</v>
       </c>
+      <c r="G322" t="n">
+        <v>0.9991172142062581</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7548,6 +8516,9 @@
       <c r="F323" t="n">
         <v>34879098921</v>
       </c>
+      <c r="G323" t="n">
+        <v>0.9991286536480484</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7570,6 +8541,9 @@
       <c r="F324" t="n">
         <v>23288439137</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.9991219893414898</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7592,6 +8566,9 @@
       <c r="F325" t="n">
         <v>33834889406</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.9990869950740876</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7614,6 +8591,9 @@
       <c r="F326" t="n">
         <v>54558293762</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.9990874969578789</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7636,6 +8616,9 @@
       <c r="F327" t="n">
         <v>44056204568</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.9991048755956446</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7658,6 +8641,9 @@
       <c r="F328" t="n">
         <v>45720458651</v>
       </c>
+      <c r="G328" t="n">
+        <v>0.9991271631950702</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7680,6 +8666,9 @@
       <c r="F329" t="n">
         <v>36841695607</v>
       </c>
+      <c r="G329" t="n">
+        <v>0.9992006225164656</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7702,6 +8691,9 @@
       <c r="F330" t="n">
         <v>25728613650</v>
       </c>
+      <c r="G330" t="n">
+        <v>0.9992949666660967</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7724,6 +8716,9 @@
       <c r="F331" t="n">
         <v>25190862393</v>
       </c>
+      <c r="G331" t="n">
+        <v>0.9993647264005201</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7746,6 +8741,9 @@
       <c r="F332" t="n">
         <v>27588594951</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.9994245414854181</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7768,6 +8766,9 @@
       <c r="F333" t="n">
         <v>37268352299</v>
       </c>
+      <c r="G333" t="n">
+        <v>0.9994839016289333</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7790,6 +8791,9 @@
       <c r="F334" t="n">
         <v>31450915067</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.9995489257343724</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7812,6 +8816,9 @@
       <c r="F335" t="n">
         <v>37405224166</v>
       </c>
+      <c r="G335" t="n">
+        <v>0.9996654493934</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7834,6 +8841,9 @@
       <c r="F336" t="n">
         <v>29913541569</v>
       </c>
+      <c r="G336" t="n">
+        <v>0.9997600841020109</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7856,6 +8866,9 @@
       <c r="F337" t="n">
         <v>26380777290</v>
       </c>
+      <c r="G337" t="n">
+        <v>0.9998363053422095</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7878,6 +8891,9 @@
       <c r="F338" t="n">
         <v>20609261957</v>
       </c>
+      <c r="G338" t="n">
+        <v>0.9998924877957196</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7900,6 +8916,9 @@
       <c r="F339" t="n">
         <v>21649754992</v>
       </c>
+      <c r="G339" t="n">
+        <v>0.9999493767854343</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7922,6 +8941,9 @@
       <c r="F340" t="n">
         <v>28743587598</v>
       </c>
+      <c r="G340" t="n">
+        <v>0.9999755330411174</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7944,6 +8966,9 @@
       <c r="F341" t="n">
         <v>25563996757</v>
       </c>
+      <c r="G341" t="n">
+        <v>1.0000009020811</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7966,6 +8991,9 @@
       <c r="F342" t="n">
         <v>25829885797</v>
       </c>
+      <c r="G342" t="n">
+        <v>1.000001183200306</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7988,6 +9016,9 @@
       <c r="F343" t="n">
         <v>25868764140</v>
       </c>
+      <c r="G343" t="n">
+        <v>1.000032626873572</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8010,6 +9041,9 @@
       <c r="F344" t="n">
         <v>25000886944</v>
       </c>
+      <c r="G344" t="n">
+        <v>1.00003871566528</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8032,6 +9066,9 @@
       <c r="F345" t="n">
         <v>16256414916</v>
       </c>
+      <c r="G345" t="n">
+        <v>1.000040540445402</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8054,6 +9091,9 @@
       <c r="F346" t="n">
         <v>17036610394</v>
       </c>
+      <c r="G346" t="n">
+        <v>1.000049896052893</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8076,6 +9116,9 @@
       <c r="F347" t="n">
         <v>25872687355</v>
       </c>
+      <c r="G347" t="n">
+        <v>1.000064184525174</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8098,6 +9141,9 @@
       <c r="F348" t="n">
         <v>37452330494</v>
       </c>
+      <c r="G348" t="n">
+        <v>1.000052400125982</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8120,6 +9166,9 @@
       <c r="F349" t="n">
         <v>31427740393</v>
       </c>
+      <c r="G349" t="n">
+        <v>1.00006555594051</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8142,6 +9191,9 @@
       <c r="F350" t="n">
         <v>24979746073</v>
       </c>
+      <c r="G350" t="n">
+        <v>1.000068657674224</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8164,6 +9216,9 @@
       <c r="F351" t="n">
         <v>31897990627</v>
       </c>
+      <c r="G351" t="n">
+        <v>1.000090742914252</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8186,6 +9241,9 @@
       <c r="F352" t="n">
         <v>21306704152</v>
       </c>
+      <c r="G352" t="n">
+        <v>1.000108320123235</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8208,6 +9266,9 @@
       <c r="F353" t="n">
         <v>14422416298</v>
       </c>
+      <c r="G353" t="n">
+        <v>1.00011998311153</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8230,6 +9291,9 @@
       <c r="F354" t="n">
         <v>21820408554</v>
       </c>
+      <c r="G354" t="n">
+        <v>1.00010998469197</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8252,6 +9316,9 @@
       <c r="F355" t="n">
         <v>26224288350</v>
       </c>
+      <c r="G355" t="n">
+        <v>1.00011023448112</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8274,6 +9341,9 @@
       <c r="F356" t="n">
         <v>18469483242</v>
       </c>
+      <c r="G356" t="n">
+        <v>1.000101928161103</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8296,6 +9366,9 @@
       <c r="F357" t="n">
         <v>20067291688</v>
       </c>
+      <c r="G357" t="n">
+        <v>1.000079187934487</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8318,6 +9391,9 @@
       <c r="F358" t="n">
         <v>18370924559</v>
       </c>
+      <c r="G358" t="n">
+        <v>1.000054637480444</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8340,6 +9416,9 @@
       <c r="F359" t="n">
         <v>11647419533</v>
       </c>
+      <c r="G359" t="n">
+        <v>1.000038981354733</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8362,6 +9441,9 @@
       <c r="F360" t="n">
         <v>14856104217</v>
       </c>
+      <c r="G360" t="n">
+        <v>1.000014990505949</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8384,6 +9466,9 @@
       <c r="F361" t="n">
         <v>14986560291</v>
       </c>
+      <c r="G361" t="n">
+        <v>1.000009991181921</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8406,6 +9491,9 @@
       <c r="F362" t="n">
         <v>18554435182</v>
       </c>
+      <c r="G362" t="n">
+        <v>0.999969987163716</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8428,6 +9516,9 @@
       <c r="F363" t="n">
         <v>21161758512</v>
       </c>
+      <c r="G363" t="n">
+        <v>0.9998989910556177</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8450,6 +9541,9 @@
       <c r="F364" t="n">
         <v>18567214596</v>
       </c>
+      <c r="G364" t="n">
+        <v>0.9998579927290454</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8471,6 +9565,9 @@
       </c>
       <c r="F365" t="n">
         <v>19162959224</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.9998082450035941</v>
       </c>
     </row>
   </sheetData>
